--- a/data/trans_camb/P15_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P15_1-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,52</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>24,56</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,84</t>
+          <t>6,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,54</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>5,66</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>14,41</t>
+          <t>20,17</t>
         </is>
       </c>
     </row>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,39</t>
+          <t>0,0; 14,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 31,16</t>
+          <t>10,85; 43,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 13,54</t>
+          <t>1,87; 17,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 19,75</t>
+          <t>6,82; 29,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 10,44</t>
+          <t>1,18; 10,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,27; 21,41</t>
+          <t>12,4; 31,58</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>4,15</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 2,54</t>
+          <t>-7,6; 4,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 7,67</t>
+          <t>-5,27; 11,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 12,79</t>
+          <t>-5,0; 10,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 2,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 4,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 12,51</t>
+          <t>1,78; 14,9</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,67</t>
+          <t>-3,97; 2,19</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 4,5</t>
+          <t>-2,32; 5,99</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,91; 9,59</t>
+          <t>0,02; 9,98</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-17,53%</t>
+          <t>-6,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>107,95%</t>
+          <t>103,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>230,98%</t>
+          <t>83,26%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-22,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>7,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>454,19%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-20,28%</t>
+          <t>-6,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>60,79%</t>
+          <t>113,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>333,46%</t>
+          <t>371,11%</t>
         </is>
       </c>
     </row>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-22,43; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,09</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>11,17</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>8,52</t>
+          <t>9,85</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 1,47</t>
+          <t>-5,48; 3,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 7,05</t>
+          <t>-3,42; 9,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,12</t>
+          <t>0,79; 17,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,29</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 8,56</t>
+          <t>1,04; 9,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,55; 16,06</t>
+          <t>5,63; 19,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 1,17</t>
+          <t>-1,57; 2,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,91</t>
+          <t>0,52; 7,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,25; 12,85</t>
+          <t>5,32; 15,47</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,77%</t>
+          <t>-6,71%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>227,92%</t>
+          <t>112,45%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>765,2%</t>
+          <t>451,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>40,4%</t>
+          <t>58,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>729,6%</t>
+          <t>466,69%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2016,73%</t>
+          <t>1435,78%</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>11,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>1,92</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5,34</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>1,06</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>0,66</t>
-        </is>
-      </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,14</t>
+          <t>8,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,92</t>
+          <t>0,0; 7,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,38</t>
+          <t>0,0; 7,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,92; 19,29</t>
+          <t>5,87; 20,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 2,71</t>
+          <t>-4,49; 3,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 4,51</t>
+          <t>-3,11; 7,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,6</t>
+          <t>-0,03; 11,85</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 2,51</t>
+          <t>-1,72; 3,82</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,98</t>
+          <t>-1,15; 4,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 13,2</t>
+          <t>4,14; 13,59</t>
         </is>
       </c>
     </row>
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>60,01%</t>
+          <t>90,43%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>354,23%</t>
+          <t>251,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>67,97%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>142,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>939,11%</t>
+          <t>729,06%</t>
         </is>
       </c>
     </row>
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-53,44; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>-100,0; —</t>
         </is>
       </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>-79,16; —</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>29,07; 1776,0</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-75,07; 1120,62</t>
-        </is>
-      </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>255,66; 3840,94</t>
+          <t>63,71; —</t>
         </is>
       </c>
     </row>
@@ -1501,42 +1501,42 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,24</t>
+          <t>7,86</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,49</t>
+          <t>10,07</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>8,62</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>3,89</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>7,91</t>
+          <t>9,55</t>
         </is>
       </c>
     </row>
@@ -1554,42 +1554,42 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,91</t>
+          <t>0,0; 6,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,28</t>
+          <t>2,64; 16,11</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 5,23</t>
+          <t>-5,64; 3,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,18</t>
+          <t>2,12; 22,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>3,16; 16,6</t>
+          <t>3,71; 22,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 2,15</t>
+          <t>-2,47; 1,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,6; 7,48</t>
+          <t>0,82; 9,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,42</t>
+          <t>4,76; 15,83</t>
         </is>
       </c>
     </row>
@@ -1617,32 +1617,32 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>101,47%</t>
+          <t>-0,6%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>742,21%</t>
+          <t>544,94%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>986,27%</t>
+          <t>637,18%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>98,27%</t>
+          <t>-1,13%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>915,43%</t>
+          <t>621,55%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1861,93%</t>
+          <t>1209,63%</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-1,15</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,47</t>
+          <t>-8,12; 5,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 4,86</t>
+          <t>-5,69; 10,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 2,4</t>
+          <t>-8,12; 5,09</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,0</t>
+          <t>-8,75; 0,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,0</t>
+          <t>-8,75; 0,0</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 3,46</t>
+          <t>-8,75; 0,0</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 1,09</t>
+          <t>-5,9; 2,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 2,83</t>
+          <t>-4,98; 4,4</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,23</t>
+          <t>-5,91; 2,27</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,79%</t>
+          <t>-4,28%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>85,67%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-8,09%</t>
+          <t>-5,82%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1838,27 +1838,27 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-50,03%</t>
+          <t>-50,57%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>43,46%</t>
+          <t>-3,56%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-0,75%</t>
+          <t>-50,68%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>8,55</t>
+          <t>9,23</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,81</t>
+          <t>8,23</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>8,72</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,17</t>
+          <t>-1,2; 2,12</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>0,6; 3,8</t>
+          <t>-0,05; 4,42</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>5,98; 12,17</t>
+          <t>5,57; 13,41</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 0,9</t>
+          <t>-1,49; 1,0</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,48; 4,67</t>
+          <t>1,1; 5,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,09</t>
+          <t>5,23; 11,4</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,79</t>
+          <t>-0,84; 1,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,62</t>
+          <t>1,09; 4,14</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,66</t>
+          <t>6,33; 11,38</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>36,7%</t>
+          <t>45,62%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>328,6%</t>
+          <t>182,21%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>1455,03%</t>
+          <t>888,96%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>-11,72%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>346,96%</t>
+          <t>346,81%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>813,54%</t>
+          <t>886,46%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,37%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>338,21%</t>
+          <t>264,29%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1062,82%</t>
+          <t>890,37%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,54 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,64; 559,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>0,63; 1866,95</t>
+          <t>-47,46; 1034,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>376,06; 6066,53</t>
+          <t>216,64; 3565,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 241,59</t>
+          <t>-88,36; 379,41</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>90,52; 1122,81</t>
+          <t>37,8; 1647,12</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>338,05; 2229,55</t>
+          <t>259,05; 3767,0</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-50,59; 203,23</t>
+          <t>-58,57; 232,47</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>115,18; 963,92</t>
+          <t>56,95; 749,16</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>536,68; 2542,16</t>
+          <t>367,53; 2200,78</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
